--- a/biology/Zoologie/Chrysanthia_viridissima/Chrysanthia_viridissima.xlsx
+++ b/biology/Zoologie/Chrysanthia_viridissima/Chrysanthia_viridissima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysanthia viridissima est une espèce d'insectes de l'ordre des coléoptères, de la famille des Oedemeridae, de la sous-famille des Oedemerinae, de la tribu des Ditylini et du genre Chrysanthia.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Longueur : 6 - 8 mm
 Ce sont des insectes plutôt allongés au corps mou et souvent à éclat métallique (vert à cuivré). Le bord antérieur du corselet et échancré; un sillon médian interrompu. Les mandibules sont bifides et les élytres ont quatre nervures longitudinales.</t>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart du temps actifs de juin à juillet, ils s'alimentent de pollen et de nectar sur les Apiaceae ou sur Achillea millefolium  (asteraceae). Les larves sont xylophages[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart du temps actifs de juin à juillet, ils s'alimentent de pollen et de nectar sur les Apiaceae ou sur Achillea millefolium  (asteraceae). Les larves sont xylophages.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Répartition
 Le genre est largement répandu dans la zone paléarctique.
@@ -606,11 +624,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Cantharis viridissima[2].
-Synonymie
-Cantharis viridissima Linné, 1758 Protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Cantharis viridissima.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chrysanthia_viridissima</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chrysanthia_viridissima</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cantharis viridissima Linné, 1758 Protonyme
 Chrysanthia viridis DeGeer, 1775</t>
         </is>
       </c>
